--- a/data/raw_data_before_2020/2018/permits-by-county-2018.xlsx
+++ b/data/raw_data_before_2020/2018/permits-by-county-2018.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\WPERMITS\Dashboard &amp; Monthly Stats\Website Statistics\2018\Dec 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data_before_2020\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A02266B2-946D-432A-BB7F-0759D173E246}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792623A5-F3D8-4E48-B0CD-C2DBC63B8A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18435" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Permits by County" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Permits by County'!$A$1:$H$30</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Year</t>
   </si>
@@ -131,6 +143,12 @@
   </si>
   <si>
     <t>Wicklow</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>North Ireland</t>
   </si>
 </sst>
 </file>
@@ -162,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,15 +203,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +553,7 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -545,8 +575,11 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2018</v>
       </c>
@@ -567,7 +600,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -587,8 +620,11 @@
       <c r="G3" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -608,8 +644,11 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -630,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -651,7 +690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -672,7 +711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -693,7 +732,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -714,7 +753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
         <v>14</v>
@@ -735,7 +774,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
         <v>15</v>
@@ -756,7 +795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
         <v>16</v>
@@ -777,7 +816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
         <v>17</v>
@@ -798,7 +837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>18</v>
@@ -819,7 +858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
         <v>19</v>
@@ -840,7 +879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
         <v>20</v>
@@ -1156,6 +1195,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H30" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1166,7 +1206,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J31"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
